--- a/RTuinOS/doc/effort.xlsx
+++ b/RTuinOS/doc/effort.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Date</t>
   </si>
@@ -41,6 +41,12 @@
   </si>
   <si>
     <t>Continuation of implementation rtos.c. First compilable revision, which is "running" with 0 tasks defined. No suspend operations so far</t>
+  </si>
+  <si>
+    <t>Continuation of implementation rtos.c. Implementation problems with first suspend operation; concept made but not proven or implemented yet</t>
+  </si>
+  <si>
+    <t>First suspend is running. TC02: Idle is periodically interrupted by a single task and then continued</t>
   </si>
 </sst>
 </file>
@@ -856,10 +862,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -954,6 +960,31 @@
         <v>8</v>
       </c>
     </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>41174</v>
+      </c>
+      <c r="B8">
+        <v>5.25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>41176</v>
+      </c>
+      <c r="B9">
+        <v>1.5</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/RTuinOS/doc/effort.xlsx
+++ b/RTuinOS/doc/effort.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Date</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>First suspend is running. TC02: Idle is periodically interrupted by a single task and then continued</t>
+  </si>
+  <si>
+    <t>waitForEvent, setEvent implemented. TC03 added, but does not yet run</t>
   </si>
 </sst>
 </file>
@@ -862,10 +865,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -985,6 +988,25 @@
         <v>10</v>
       </c>
     </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>41177</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>41178</v>
+      </c>
+      <c r="B11">
+        <v>2.5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/RTuinOS/doc/effort.xlsx
+++ b/RTuinOS/doc/effort.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="effort" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Date</t>
   </si>
@@ -43,13 +43,25 @@
     <t>Continuation of implementation rtos.c. First compilable revision, which is "running" with 0 tasks defined. No suspend operations so far</t>
   </si>
   <si>
-    <t>Continuation of implementation rtos.c. Implementation problems with first suspend operation; concept made but not proven or implemented yet</t>
-  </si>
-  <si>
     <t>First suspend is running. TC02: Idle is periodically interrupted by a single task and then continued</t>
   </si>
   <si>
     <t>waitForEvent, setEvent implemented. TC03 added, but does not yet run</t>
+  </si>
+  <si>
+    <t>Debugging of current implementation. Still no success with two tasks plus idle</t>
+  </si>
+  <si>
+    <t>First success with two tasks plus idle but not yet proven by profound testing</t>
+  </si>
+  <si>
+    <t>Specification of RTuinOS API</t>
+  </si>
+  <si>
+    <t>Continuation of implementation rtos.c. Implementation problems with first suspend operation; New implementation concept made but not proven or implemented yet</t>
+  </si>
+  <si>
+    <t>First non-trivial test cases are running well</t>
   </si>
 </sst>
 </file>
@@ -865,10 +877,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -890,121 +902,168 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>41167</v>
-      </c>
-      <c r="B2">
-        <v>6</v>
+        <v>41164</v>
+      </c>
+      <c r="C2">
+        <v>2.5</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>41169</v>
+        <v>41167</v>
       </c>
       <c r="B3">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>41170</v>
+        <v>41169</v>
       </c>
       <c r="B4">
         <v>3.5</v>
       </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
       <c r="D4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>41171</v>
+        <v>41170</v>
       </c>
       <c r="B5">
+        <v>3.5</v>
+      </c>
+      <c r="C5">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>41172</v>
+        <v>41171</v>
       </c>
       <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>41173</v>
+        <v>41172</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>41174</v>
+        <v>41173</v>
       </c>
       <c r="B8">
-        <v>5.25</v>
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>41176</v>
+        <v>41174</v>
       </c>
       <c r="B9">
-        <v>1.5</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
+        <v>5.25</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>41177</v>
+        <v>41176</v>
+      </c>
+      <c r="B10">
+        <v>1.5</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
+        <v>41177</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
         <v>41178</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>2.5</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>41179</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="D13" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>41180</v>
+      </c>
+      <c r="B14">
+        <v>3.75</v>
+      </c>
+      <c r="C14">
+        <v>0.25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>41183</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/RTuinOS/doc/effort.xlsx
+++ b/RTuinOS/doc/effort.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Date</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>First non-trivial test cases are running well</t>
+  </si>
+  <si>
+    <t>Doxygen set up, setEvent completed and first related, new test case tc05 succeeds</t>
   </si>
 </sst>
 </file>
@@ -877,10 +880,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1066,6 +1069,20 @@
         <v>15</v>
       </c>
     </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>41184</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>0.5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/RTuinOS/doc/effort.xlsx
+++ b/RTuinOS/doc/effort.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Date</t>
   </si>
@@ -65,6 +65,12 @@
   </si>
   <si>
     <t>Doxygen set up, setEvent completed and first related, new test case tc05 succeeds</t>
+  </si>
+  <si>
+    <t>Implementation task overrun and stack usage, not tested yet</t>
+  </si>
+  <si>
+    <t>Implementation application interrupts, not tested yet. Testing of setEvent/waitForEvent</t>
   </si>
 </sst>
 </file>
@@ -880,10 +886,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1074,13 +1080,38 @@
         <v>41184</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C16">
         <v>0.5</v>
       </c>
       <c r="D16" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>41185</v>
+      </c>
+      <c r="B17">
+        <v>2.25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>41186</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/RTuinOS/doc/effort.xlsx
+++ b/RTuinOS/doc/effort.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Date</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>Implementation application interrupts, not tested yet. Testing of setEvent/waitForEvent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code cleanup check of all test cases as preparation of re-implementation index-&gt;pointer </t>
   </si>
 </sst>
 </file>
@@ -886,10 +889,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1114,6 +1117,17 @@
         <v>18</v>
       </c>
     </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>41187</v>
+      </c>
+      <c r="B19">
+        <v>1.75</v>
+      </c>
+      <c r="D19" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/RTuinOS/doc/effort.xlsx
+++ b/RTuinOS/doc/effort.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Date</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t xml:space="preserve">Code cleanup check of all test cases as preparation of re-implementation index-&gt;pointer </t>
+  </si>
+  <si>
+    <t>Redesign of implementation of core using pointers to task objects</t>
   </si>
 </sst>
 </file>
@@ -889,10 +892,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1122,10 +1125,21 @@
         <v>41187</v>
       </c>
       <c r="B19">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="D19" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>41188</v>
+      </c>
+      <c r="B20">
+        <v>3.25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/RTuinOS/doc/effort.xlsx
+++ b/RTuinOS/doc/effort.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Date</t>
   </si>
@@ -77,6 +77,12 @@
   </si>
   <si>
     <t>Redesign of implementation of core using pointers to task objects</t>
+  </si>
+  <si>
+    <t>Implementation of Round-Robin. GNU FDL added to manual</t>
+  </si>
+  <si>
+    <t>Manual set up from LaTeX template</t>
   </si>
 </sst>
 </file>
@@ -892,10 +898,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1142,6 +1148,28 @@
         <v>20</v>
       </c>
     </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>41190</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>41192</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/RTuinOS/doc/effort.xlsx
+++ b/RTuinOS/doc/effort.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>Date</t>
   </si>
@@ -83,6 +83,12 @@
   </si>
   <si>
     <t>Manual set up from LaTeX template</t>
+  </si>
+  <si>
+    <t>Manual continued</t>
+  </si>
+  <si>
+    <t>Fix: Bad specification of ALL events - now timer events are still an OR condition</t>
   </si>
 </sst>
 </file>
@@ -898,10 +904,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1170,6 +1176,39 @@
         <v>21</v>
       </c>
     </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>41193</v>
+      </c>
+      <c r="B23">
+        <v>2.25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>41194</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>41197</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/RTuinOS/doc/effort.xlsx
+++ b/RTuinOS/doc/effort.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>Date</t>
   </si>
@@ -88,7 +88,10 @@
     <t>Manual continued</t>
   </si>
   <si>
-    <t>Fix: Bad specification of ALL events - now timer events are still an OR condition</t>
+    <t>Fix: Bad specification of ALL events - now timer events are still an OR condition. Implementation of waitForEventsTillTime by generalization of waitForEvent</t>
+  </si>
+  <si>
+    <t>Code cleanup, suspendTillTime discarded. Implementation of enter/leaveCriticalSection</t>
   </si>
 </sst>
 </file>
@@ -904,10 +907,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1203,10 +1206,21 @@
         <v>41197</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="D25" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>41198</v>
+      </c>
+      <c r="B26">
+        <v>2.5</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/RTuinOS/doc/effort.xlsx
+++ b/RTuinOS/doc/effort.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>Date</t>
   </si>
@@ -907,10 +907,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1223,6 +1223,17 @@
         <v>25</v>
       </c>
     </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>41199</v>
+      </c>
+      <c r="B27">
+        <v>1.75</v>
+      </c>
+      <c r="D27" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/RTuinOS/doc/effort.xlsx
+++ b/RTuinOS/doc/effort.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>Date</t>
   </si>
@@ -907,10 +907,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1234,6 +1234,28 @@
         <v>23</v>
       </c>
     </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>41200</v>
+      </c>
+      <c r="B28">
+        <v>1.75</v>
+      </c>
+      <c r="D28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>41205</v>
+      </c>
+      <c r="B29">
+        <v>2.5</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/RTuinOS/doc/effort.xlsx
+++ b/RTuinOS/doc/effort.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>Date</t>
   </si>
@@ -907,10 +907,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1256,6 +1256,17 @@
         <v>23</v>
       </c>
     </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>41206</v>
+      </c>
+      <c r="B30">
+        <v>2.75</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/RTuinOS/doc/effort.xlsx
+++ b/RTuinOS/doc/effort.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>Date</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>Code cleanup, suspendTillTime discarded. Implementation of enter/leaveCriticalSection</t>
+  </si>
+  <si>
+    <t>Makefile: Dependency files incorporated, Manual continued</t>
   </si>
 </sst>
 </file>
@@ -907,10 +910,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1267,6 +1270,20 @@
         <v>23</v>
       </c>
     </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>41207</v>
+      </c>
+      <c r="B31">
+        <v>2.5</v>
+      </c>
+      <c r="C31">
+        <v>1.25</v>
+      </c>
+      <c r="D31" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/RTuinOS/doc/effort.xlsx
+++ b/RTuinOS/doc/effort.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>Date</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>Makefile: Dependency files incorporated, Manual continued</t>
+  </si>
+  <si>
+    <t>Manual continued, widely completed as draft but without chapter Use Cases</t>
   </si>
 </sst>
 </file>
@@ -910,7 +913,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A32" sqref="A32"/>
@@ -1104,10 +1107,7 @@
         <v>41184</v>
       </c>
       <c r="B16">
-        <v>5</v>
-      </c>
-      <c r="C16">
-        <v>0.5</v>
+        <v>5.5</v>
       </c>
       <c r="D16" t="s">
         <v>16</v>
@@ -1282,6 +1282,17 @@
       </c>
       <c r="D31" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>41208</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="D32" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/RTuinOS/doc/effort.xlsx
+++ b/RTuinOS/doc/effort.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
   <si>
     <t>Date</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t>Manual continued, widely completed as draft but without chapter Use Cases</t>
+  </si>
+  <si>
+    <t>Manual reviewed</t>
   </si>
 </sst>
 </file>
@@ -913,10 +916,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1295,6 +1298,42 @@
         <v>27</v>
       </c>
     </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>41212</v>
+      </c>
+      <c r="B33">
+        <v>2.75</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>41213</v>
+      </c>
+      <c r="B34">
+        <v>2.75</v>
+      </c>
+      <c r="D34" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>41214</v>
+      </c>
+      <c r="B35">
+        <v>1.5</v>
+      </c>
+      <c r="D35" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/RTuinOS/doc/effort.xlsx
+++ b/RTuinOS/doc/effort.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
   <si>
     <t>Date</t>
   </si>
@@ -101,6 +101,9 @@
   </si>
   <si>
     <t>Manual reviewed</t>
+  </si>
+  <si>
+    <t>Manual continued, new test case tc07</t>
   </si>
 </sst>
 </file>
@@ -916,10 +919,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1334,6 +1337,31 @@
         <v>28</v>
       </c>
     </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>41218</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>41219</v>
+      </c>
+      <c r="B37">
+        <v>1.75</v>
+      </c>
+      <c r="C37">
+        <v>0.25</v>
+      </c>
+      <c r="D37" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/RTuinOS/doc/effort.xlsx
+++ b/RTuinOS/doc/effort.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
   <si>
     <t>Date</t>
   </si>
@@ -104,6 +104,9 @@
   </si>
   <si>
     <t>Manual continued, new test case tc07</t>
+  </si>
+  <si>
+    <t>Creation of installer, test case tc07 put to operation</t>
   </si>
 </sst>
 </file>
@@ -919,10 +922,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1362,6 +1365,20 @@
         <v>29</v>
       </c>
     </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>41220</v>
+      </c>
+      <c r="B38">
+        <v>2.25</v>
+      </c>
+      <c r="C38">
+        <v>0.75</v>
+      </c>
+      <c r="D38" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/RTuinOS/doc/effort.xlsx
+++ b/RTuinOS/doc/effort.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -107,6 +107,9 @@
   </si>
   <si>
     <t>Creation of installer, test case tc07 put to operation</t>
+  </si>
+  <si>
+    <t>Installer creation scripts continued, missing readMe files added</t>
   </si>
 </sst>
 </file>
@@ -922,10 +925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1379,6 +1382,17 @@
         <v>30</v>
       </c>
     </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>41221</v>
+      </c>
+      <c r="B39">
+        <v>3</v>
+      </c>
+      <c r="D39" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/RTuinOS/doc/effort.xlsx
+++ b/RTuinOS/doc/effort.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
   <si>
     <t>Date</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Installer creation scripts continued, missing readMe files added</t>
+  </si>
+  <si>
+    <t>Installer creation scripts continued, new test case tc08</t>
   </si>
 </sst>
 </file>
@@ -925,10 +928,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1393,6 +1396,17 @@
         <v>31</v>
       </c>
     </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>41225</v>
+      </c>
+      <c r="B40">
+        <v>3.5</v>
+      </c>
+      <c r="D40" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/RTuinOS/doc/effort.xlsx
+++ b/RTuinOS/doc/effort.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
   <si>
     <t>Date</t>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t>Installer creation scripts continued, new test case tc08</t>
+  </si>
+  <si>
+    <t>Test case tc08 put to operation but still shows some bad behavior</t>
   </si>
 </sst>
 </file>
@@ -928,10 +931,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1097,10 +1100,7 @@
         <v>41180</v>
       </c>
       <c r="B14">
-        <v>3.75</v>
-      </c>
-      <c r="C14">
-        <v>0.25</v>
+        <v>4</v>
       </c>
       <c r="D14" t="s">
         <v>12</v>
@@ -1362,10 +1362,7 @@
         <v>41219</v>
       </c>
       <c r="B37">
-        <v>1.75</v>
-      </c>
-      <c r="C37">
-        <v>0.25</v>
+        <v>2</v>
       </c>
       <c r="D37" t="s">
         <v>29</v>
@@ -1405,6 +1402,17 @@
       </c>
       <c r="D40" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>41227</v>
+      </c>
+      <c r="B41">
+        <v>2.5</v>
+      </c>
+      <c r="D41" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/RTuinOS/doc/effort.xlsx
+++ b/RTuinOS/doc/effort.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
   <si>
     <t>Date</t>
   </si>
@@ -116,6 +116,15 @@
   </si>
   <si>
     <t>Test case tc08 put to operation but still shows some bad behavior</t>
+  </si>
+  <si>
+    <t>Test case tc08 is working well, a fix of rtos.c was required. All test cases rerun. Manual updated</t>
+  </si>
+  <si>
+    <t>Preparation of release, new test case tc09</t>
+  </si>
+  <si>
+    <t>Makefile: Workaround for 12 Bit Branch distance problem with core.a</t>
   </si>
 </sst>
 </file>
@@ -931,10 +940,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1415,6 +1424,39 @@
         <v>33</v>
       </c>
     </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>41228</v>
+      </c>
+      <c r="B42">
+        <v>2.5</v>
+      </c>
+      <c r="D42" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>41229</v>
+      </c>
+      <c r="B43">
+        <v>3.25</v>
+      </c>
+      <c r="D43" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>41232</v>
+      </c>
+      <c r="B44">
+        <v>1.25</v>
+      </c>
+      <c r="D44" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/RTuinOS/doc/effort.xlsx
+++ b/RTuinOS/doc/effort.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
   <si>
     <t>Date</t>
   </si>
@@ -125,6 +125,9 @@
   </si>
   <si>
     <t>Makefile: Workaround for 12 Bit Branch distance problem with core.a</t>
+  </si>
+  <si>
+    <t>New test case tc09 put to operation and completed. Fix of makefile. Documentation. Export for Andreas</t>
   </si>
 </sst>
 </file>
@@ -940,10 +943,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1457,6 +1460,17 @@
         <v>36</v>
       </c>
     </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>41233</v>
+      </c>
+      <c r="B45">
+        <v>2.5</v>
+      </c>
+      <c r="D45" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/RTuinOS/doc/effort.xlsx
+++ b/RTuinOS/doc/effort.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
   <si>
     <t>Date</t>
   </si>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t>New test case tc09 put to operation and completed. Fix of makefile. Documentation. Export for Andreas</t>
+  </si>
+  <si>
+    <t>Minor changes on documentation and setup</t>
   </si>
 </sst>
 </file>
@@ -943,10 +946,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1471,6 +1474,17 @@
         <v>37</v>
       </c>
     </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>41234</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="D46" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/RTuinOS/doc/effort.xlsx
+++ b/RTuinOS/doc/effort.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
   <si>
     <t>Date</t>
   </si>
@@ -131,6 +131,15 @@
   </si>
   <si>
     <t>Minor changes on documentation and setup</t>
+  </si>
+  <si>
+    <t>System load estimation</t>
+  </si>
+  <si>
+    <t>Minor changes on documentation and setup. System load estimation</t>
+  </si>
+  <si>
+    <t>tc: System load estimation put to operation, validated by test case tc10</t>
   </si>
 </sst>
 </file>
@@ -946,10 +955,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1485,6 +1494,39 @@
         <v>38</v>
       </c>
     </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>41239</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="D47" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>41241</v>
+      </c>
+      <c r="B48">
+        <v>2</v>
+      </c>
+      <c r="D48" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>41242</v>
+      </c>
+      <c r="B49">
+        <v>2</v>
+      </c>
+      <c r="D49" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/RTuinOS/doc/effort.xlsx
+++ b/RTuinOS/doc/effort.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
   <si>
     <t>Date</t>
   </si>
@@ -136,10 +136,13 @@
     <t>System load estimation</t>
   </si>
   <si>
-    <t>Minor changes on documentation and setup. System load estimation</t>
-  </si>
-  <si>
     <t>tc: System load estimation put to operation, validated by test case tc10</t>
+  </si>
+  <si>
+    <t>tc05 revised, documentation of rtos.c/h extended/corrected</t>
+  </si>
+  <si>
+    <t>Documentation, tc10 and doxygen</t>
   </si>
 </sst>
 </file>
@@ -955,10 +958,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1499,10 +1502,10 @@
         <v>41239</v>
       </c>
       <c r="B47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -1524,7 +1527,29 @@
         <v>2</v>
       </c>
       <c r="D49" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>41243</v>
+      </c>
+      <c r="B50">
+        <v>3.75</v>
+      </c>
+      <c r="D50" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>41244</v>
+      </c>
+      <c r="B51">
+        <v>1.75</v>
+      </c>
+      <c r="D51" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/RTuinOS/doc/effort.xlsx
+++ b/RTuinOS/doc/effort.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
   <si>
     <t>Date</t>
   </si>
@@ -143,6 +143,9 @@
   </si>
   <si>
     <t>Documentation, tc10 and doxygen</t>
+  </si>
+  <si>
+    <t>Manual: New section "Task switches" started</t>
   </si>
 </sst>
 </file>
@@ -958,10 +961,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1552,6 +1555,17 @@
         <v>42</v>
       </c>
     </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>41246</v>
+      </c>
+      <c r="B52">
+        <v>2.5</v>
+      </c>
+      <c r="D52" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/RTuinOS/doc/effort.xlsx
+++ b/RTuinOS/doc/effort.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="47">
   <si>
     <t>Date</t>
   </si>
@@ -146,6 +146,15 @@
   </si>
   <si>
     <t>Manual: New section "Task switches" started</t>
+  </si>
+  <si>
+    <t>Manual: new section continued, new figure for illustration</t>
+  </si>
+  <si>
+    <t>Manual: new section 2.7 completed, including new figures and first review</t>
+  </si>
+  <si>
+    <t>Manual: Section 4.4, data type system time rewritten</t>
   </si>
 </sst>
 </file>
@@ -961,10 +970,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1566,6 +1575,42 @@
         <v>43</v>
       </c>
     </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>41247</v>
+      </c>
+      <c r="B53">
+        <v>2.5</v>
+      </c>
+      <c r="D53" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>41248</v>
+      </c>
+      <c r="B54">
+        <v>0.75</v>
+      </c>
+      <c r="C54">
+        <v>2.5</v>
+      </c>
+      <c r="D54" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>41249</v>
+      </c>
+      <c r="B55">
+        <v>2.5</v>
+      </c>
+      <c r="D55" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/RTuinOS/doc/effort.xlsx
+++ b/RTuinOS/doc/effort.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
   <si>
     <t>Date</t>
   </si>
@@ -155,6 +155,12 @@
   </si>
   <si>
     <t>Manual: Section 4.4, data type system time rewritten</t>
+  </si>
+  <si>
+    <t>Manual: 2nd review completed</t>
+  </si>
+  <si>
+    <t>Manual: 2nd review continued</t>
   </si>
 </sst>
 </file>
@@ -970,10 +976,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1611,6 +1617,28 @@
         <v>46</v>
       </c>
     </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>41254</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="D56" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>41255</v>
+      </c>
+      <c r="B57">
+        <v>1.75</v>
+      </c>
+      <c r="D57" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/RTuinOS/doc/effort.xlsx
+++ b/RTuinOS/doc/effort.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
   <si>
     <t>Date</t>
   </si>
@@ -161,6 +161,9 @@
   </si>
   <si>
     <t>Manual: 2nd review continued</t>
+  </si>
+  <si>
+    <t>Documentation of code slightly improved</t>
   </si>
 </sst>
 </file>
@@ -976,10 +979,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D57"/>
+  <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1360,10 +1363,7 @@
         <v>41212</v>
       </c>
       <c r="B33">
-        <v>2.75</v>
-      </c>
-      <c r="C33">
-        <v>2</v>
+        <v>4.75</v>
       </c>
       <c r="D33" t="s">
         <v>23</v>
@@ -1637,6 +1637,17 @@
       </c>
       <c r="D57" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>41256</v>
+      </c>
+      <c r="B58">
+        <v>0.5</v>
+      </c>
+      <c r="D58" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/RTuinOS/doc/effort.xlsx
+++ b/RTuinOS/doc/effort.xlsx
@@ -981,8 +981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1006,7 +1006,7 @@
       <c r="A2" s="1">
         <v>41164</v>
       </c>
-      <c r="C2">
+      <c r="B2">
         <v>2.5</v>
       </c>
       <c r="D2" t="s">
@@ -1040,10 +1040,7 @@
         <v>41170</v>
       </c>
       <c r="B5">
-        <v>3.5</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="D5" t="s">
         <v>4</v>
@@ -1338,10 +1335,10 @@
         <v>41207</v>
       </c>
       <c r="B31">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="C31">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="D31" t="s">
         <v>26</v>
@@ -1418,10 +1415,7 @@
         <v>41220</v>
       </c>
       <c r="B38">
-        <v>2.25</v>
-      </c>
-      <c r="C38">
-        <v>0.75</v>
+        <v>3</v>
       </c>
       <c r="D38" t="s">
         <v>30</v>
@@ -1597,10 +1591,7 @@
         <v>41248</v>
       </c>
       <c r="B54">
-        <v>0.75</v>
-      </c>
-      <c r="C54">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="D54" t="s">
         <v>45</v>

--- a/RTuinOS/doc/effort.xlsx
+++ b/RTuinOS/doc/effort.xlsx
@@ -14,15 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
   <si>
     <t>Date</t>
   </si>
   <si>
     <t>Effort [h]</t>
-  </si>
-  <si>
-    <t>Additional Effort [h]</t>
   </si>
   <si>
     <t>C code of scheduler core</t>
@@ -979,666 +976,646 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D58"/>
+  <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="72.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="72.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>41164</v>
       </c>
       <c r="B2">
         <v>2.5</v>
       </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>41167</v>
       </c>
       <c r="B3">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>41169</v>
       </c>
       <c r="B4">
         <v>3.5</v>
       </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>41170</v>
       </c>
       <c r="B5">
         <v>5.5</v>
       </c>
-      <c r="D5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>41171</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>41172</v>
       </c>
       <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>41173</v>
       </c>
       <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>41174</v>
       </c>
       <c r="B9">
         <v>5.25</v>
       </c>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>41176</v>
       </c>
       <c r="B10">
-        <v>1.5</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2.5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>41177</v>
       </c>
-      <c r="C11">
+      <c r="B11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>41178</v>
       </c>
       <c r="B12">
         <v>2.5</v>
       </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>41179</v>
       </c>
       <c r="B13">
         <v>3</v>
       </c>
-      <c r="D13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>41180</v>
       </c>
       <c r="B14">
         <v>4</v>
       </c>
-      <c r="D14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>41183</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
-      <c r="D15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>41184</v>
       </c>
       <c r="B16">
         <v>5.5</v>
       </c>
-      <c r="D16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>41185</v>
       </c>
       <c r="B17">
         <v>2.25</v>
       </c>
-      <c r="D17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>41186</v>
       </c>
       <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="C18">
-        <v>2</v>
-      </c>
-      <c r="D18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>41187</v>
       </c>
       <c r="B19">
         <v>2</v>
       </c>
-      <c r="D19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>41188</v>
       </c>
       <c r="B20">
         <v>3.25</v>
       </c>
-      <c r="D20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>41190</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
-      <c r="D21" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>41192</v>
       </c>
       <c r="B22">
         <v>2</v>
       </c>
-      <c r="D22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>41193</v>
       </c>
       <c r="B23">
         <v>2.25</v>
       </c>
-      <c r="D23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>41194</v>
       </c>
       <c r="B24">
         <v>5</v>
       </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>41197</v>
       </c>
       <c r="B25">
         <v>2.5</v>
       </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>41198</v>
       </c>
       <c r="B26">
         <v>2.5</v>
       </c>
-      <c r="D26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>41199</v>
       </c>
       <c r="B27">
         <v>1.75</v>
       </c>
-      <c r="D27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>41200</v>
       </c>
       <c r="B28">
         <v>1.75</v>
       </c>
-      <c r="D28" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>41205</v>
       </c>
       <c r="B29">
         <v>2.5</v>
       </c>
-      <c r="D29" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>41206</v>
       </c>
       <c r="B30">
         <v>2.75</v>
       </c>
-      <c r="D30" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>41207</v>
       </c>
       <c r="B31">
-        <v>2.75</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3.75</v>
+      </c>
+      <c r="C31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>41208</v>
       </c>
       <c r="B32">
         <v>4</v>
       </c>
-      <c r="D32" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>41212</v>
       </c>
       <c r="B33">
         <v>4.75</v>
       </c>
-      <c r="D33" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C33" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>41213</v>
       </c>
       <c r="B34">
         <v>2.75</v>
       </c>
-      <c r="D34" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>41214</v>
       </c>
       <c r="B35">
         <v>1.5</v>
       </c>
-      <c r="D35" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>41218</v>
       </c>
       <c r="B36">
         <v>1</v>
       </c>
-      <c r="D36" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>41219</v>
       </c>
       <c r="B37">
         <v>2</v>
       </c>
-      <c r="D37" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C37" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>41220</v>
       </c>
       <c r="B38">
         <v>3</v>
       </c>
-      <c r="D38" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C38" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>41221</v>
       </c>
       <c r="B39">
         <v>3</v>
       </c>
-      <c r="D39" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C39" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>41225</v>
       </c>
       <c r="B40">
         <v>3.5</v>
       </c>
-      <c r="D40" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C40" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>41227</v>
       </c>
       <c r="B41">
         <v>2.5</v>
       </c>
-      <c r="D41" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C41" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41228</v>
       </c>
       <c r="B42">
         <v>2.5</v>
       </c>
-      <c r="D42" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C42" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>41229</v>
       </c>
       <c r="B43">
         <v>3.25</v>
       </c>
-      <c r="D43" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C43" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>41232</v>
       </c>
       <c r="B44">
         <v>1.25</v>
       </c>
-      <c r="D44" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C44" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>41233</v>
       </c>
       <c r="B45">
         <v>2.5</v>
       </c>
-      <c r="D45" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C45" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>41234</v>
       </c>
       <c r="B46">
         <v>1</v>
       </c>
-      <c r="D46" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C46" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>41239</v>
       </c>
       <c r="B47">
         <v>1</v>
       </c>
-      <c r="D47" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C47" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>41241</v>
       </c>
       <c r="B48">
         <v>2</v>
       </c>
-      <c r="D48" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C48" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>41242</v>
       </c>
       <c r="B49">
         <v>2</v>
       </c>
-      <c r="D49" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C49" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>41243</v>
       </c>
       <c r="B50">
         <v>3.75</v>
       </c>
-      <c r="D50" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C50" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>41244</v>
       </c>
       <c r="B51">
         <v>1.75</v>
       </c>
-      <c r="D51" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C51" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>41246</v>
       </c>
       <c r="B52">
         <v>2.5</v>
       </c>
-      <c r="D52" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C52" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>41247</v>
       </c>
       <c r="B53">
         <v>2.5</v>
       </c>
-      <c r="D53" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C53" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>41248</v>
       </c>
       <c r="B54">
         <v>3.25</v>
       </c>
-      <c r="D54" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C54" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>41249</v>
       </c>
       <c r="B55">
         <v>2.5</v>
       </c>
-      <c r="D55" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C55" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>41254</v>
       </c>
       <c r="B56">
         <v>1</v>
       </c>
-      <c r="D56" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C56" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>41255</v>
       </c>
       <c r="B57">
         <v>1.75</v>
       </c>
-      <c r="D57" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C57" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>41256</v>
       </c>
       <c r="B58">
         <v>0.5</v>
       </c>
-      <c r="D58" t="s">
-        <v>49</v>
+      <c r="C58" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/RTuinOS/doc/effort.xlsx
+++ b/RTuinOS/doc/effort.xlsx
@@ -7,14 +7,15 @@
     <workbookView xWindow="0" yWindow="30" windowWidth="14220" windowHeight="7815"/>
   </bookViews>
   <sheets>
-    <sheet name="effort" sheetId="1" r:id="rId1"/>
+    <sheet name="Effort R 1.0" sheetId="3" r:id="rId1"/>
+    <sheet name="Effort R 0.9" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="62">
   <si>
     <t>Date</t>
   </si>
@@ -161,6 +162,45 @@
   </si>
   <si>
     <t>Documentation of code slightly improved</t>
+  </si>
+  <si>
+    <t>Additional Effort [h]</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Revision of Makefile</t>
+  </si>
+  <si>
+    <t>Documentation Makefile changes. Concept for new sync objects</t>
+  </si>
+  <si>
+    <t>Concept of new sync objects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design of implementation new sync objects </t>
+  </si>
+  <si>
+    <t>Implementation of mutexes</t>
+  </si>
+  <si>
+    <t>Update Manual</t>
+  </si>
+  <si>
+    <t>Implementation of mutexes: Basically done. No test case implemented yet, no testing done yet</t>
+  </si>
+  <si>
+    <t>Implementation of tc11_mutex</t>
+  </si>
+  <si>
+    <t>Implementation of semaphores and first, very preliminary but successfuls tests</t>
+  </si>
+  <si>
+    <t>Implementation tc12_queue</t>
+  </si>
+  <si>
+    <t>Design and implementation tc13_eventStates</t>
   </si>
 </sst>
 </file>
@@ -976,9 +1016,225 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="72.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>41423</v>
+      </c>
+      <c r="B2">
+        <v>2.5</v>
+      </c>
+      <c r="C2">
+        <v>2.5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>41424</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>41425</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>41426</v>
+      </c>
+      <c r="B5">
+        <v>0.75</v>
+      </c>
+      <c r="D5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>41430</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>41431</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>41432</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>41432</v>
+      </c>
+      <c r="B9">
+        <v>2.25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>41435</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>41436</v>
+      </c>
+      <c r="B11">
+        <v>1.5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>41439</v>
+      </c>
+      <c r="B12">
+        <v>1.5</v>
+      </c>
+      <c r="C12">
+        <v>2.5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>41440</v>
+      </c>
+      <c r="B13">
+        <v>2.5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>41442</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>41443</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>41444</v>
+      </c>
+      <c r="B16">
+        <v>1.5</v>
+      </c>
+      <c r="C16">
+        <v>2.5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>

--- a/RTuinOS/doc/effort.xlsx
+++ b/RTuinOS/doc/effort.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="64">
   <si>
     <t>Date</t>
   </si>
@@ -201,6 +201,12 @@
   </si>
   <si>
     <t>Design and implementation tc13_eventStates</t>
+  </si>
+  <si>
+    <t>Implementation tc13_eventStates</t>
+  </si>
+  <si>
+    <t>Successful completion of tc13</t>
   </si>
 </sst>
 </file>
@@ -1016,10 +1022,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1220,6 +1226,28 @@
       </c>
       <c r="D16" t="s">
         <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>41445</v>
+      </c>
+      <c r="B17">
+        <v>0.5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>41446</v>
+      </c>
+      <c r="C18">
+        <v>2.25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/RTuinOS/doc/effort.xlsx
+++ b/RTuinOS/doc/effort.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="65">
   <si>
     <t>Date</t>
   </si>
@@ -207,6 +207,9 @@
   </si>
   <si>
     <t>Successful completion of tc13</t>
+  </si>
+  <si>
+    <t>Unsuccessful, reverted attempt to optimize context switch code</t>
   </si>
 </sst>
 </file>
@@ -1022,10 +1025,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1248,6 +1251,28 @@
       </c>
       <c r="D18" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>41449</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>41450</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/RTuinOS/doc/effort.xlsx
+++ b/RTuinOS/doc/effort.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="68">
   <si>
     <t>Date</t>
   </si>
@@ -210,6 +210,15 @@
   </si>
   <si>
     <t>Unsuccessful, reverted attempt to optimize context switch code</t>
+  </si>
+  <si>
+    <t>TODOs, code cleanup</t>
+  </si>
+  <si>
+    <t>Concept of tc14</t>
+  </si>
+  <si>
+    <t>Implementation tc14</t>
   </si>
 </sst>
 </file>
@@ -1025,10 +1034,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1172,10 +1181,10 @@
         <v>41439</v>
       </c>
       <c r="B12">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="D12" t="s">
         <v>59</v>
@@ -1246,7 +1255,7 @@
       <c r="A18" s="1">
         <v>41446</v>
       </c>
-      <c r="C18">
+      <c r="B18">
         <v>2.25</v>
       </c>
       <c r="D18" t="s">
@@ -1273,6 +1282,39 @@
       </c>
       <c r="D20" t="s">
         <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>41452</v>
+      </c>
+      <c r="B21">
+        <v>2.5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B22">
+        <v>1.5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>41456</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="D23" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/RTuinOS/doc/effort.xlsx
+++ b/RTuinOS/doc/effort.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="69">
   <si>
     <t>Date</t>
   </si>
@@ -219,6 +219,9 @@
   </si>
   <si>
     <t>Implementation tc14</t>
+  </si>
+  <si>
+    <t>Implementation tc14, variants tried</t>
   </si>
 </sst>
 </file>
@@ -1034,10 +1037,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1315,6 +1318,17 @@
       </c>
       <c r="D23" t="s">
         <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>41457</v>
+      </c>
+      <c r="B24">
+        <v>2.5</v>
+      </c>
+      <c r="D24" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/RTuinOS/doc/effort.xlsx
+++ b/RTuinOS/doc/effort.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="70">
   <si>
     <t>Date</t>
   </si>
@@ -222,6 +222,9 @@
   </si>
   <si>
     <t>Implementation tc14, variants tried</t>
+  </si>
+  <si>
+    <t>SVN branch: gcc versus g++. Revision of Makefile, support of Linux and Windows, modularization</t>
   </si>
 </sst>
 </file>
@@ -1037,10 +1040,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1220,10 +1223,7 @@
         <v>41443</v>
       </c>
       <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" t="s">
         <v>60</v>
@@ -1234,10 +1234,10 @@
         <v>41444</v>
       </c>
       <c r="B16">
-        <v>1.5</v>
+        <v>2.75</v>
       </c>
       <c r="C16">
-        <v>2.5</v>
+        <v>1.25</v>
       </c>
       <c r="D16" t="s">
         <v>61</v>
@@ -1329,6 +1329,17 @@
       </c>
       <c r="D24" t="s">
         <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>41462</v>
+      </c>
+      <c r="B25">
+        <v>2.5</v>
+      </c>
+      <c r="D25" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/RTuinOS/doc/effort.xlsx
+++ b/RTuinOS/doc/effort.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="71">
   <si>
     <t>Date</t>
   </si>
@@ -225,6 +225,9 @@
   </si>
   <si>
     <t>SVN branch: gcc versus g++. Revision of Makefile, support of Linux and Windows, modularization</t>
+  </si>
+  <si>
+    <t>Revision manual</t>
   </si>
 </sst>
 </file>
@@ -1040,10 +1043,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1333,13 +1336,57 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
+        <v>41458</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>41461</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
         <v>41462</v>
       </c>
-      <c r="B25">
+      <c r="B27">
         <v>2.5</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D27" t="s">
         <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>41463</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="D28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>41464</v>
+      </c>
+      <c r="B29">
+        <v>1.5</v>
+      </c>
+      <c r="D29" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/RTuinOS/doc/effort.xlsx
+++ b/RTuinOS/doc/effort.xlsx
@@ -10,12 +10,12 @@
     <sheet name="Effort R 1.0" sheetId="3" r:id="rId1"/>
     <sheet name="Effort R 0.9" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="71">
   <si>
     <t>Date</t>
   </si>
@@ -170,12 +170,6 @@
     <t>Task</t>
   </si>
   <si>
-    <t>Revision of Makefile</t>
-  </si>
-  <si>
-    <t>Documentation Makefile changes. Concept for new sync objects</t>
-  </si>
-  <si>
     <t>Concept of new sync objects</t>
   </si>
   <si>
@@ -228,6 +222,12 @@
   </si>
   <si>
     <t>Revision manual</t>
+  </si>
+  <si>
+    <t>Revision of makefile</t>
+  </si>
+  <si>
+    <t>Documentation makefile changes. Concept for new sync objects</t>
   </si>
 </sst>
 </file>
@@ -1043,10 +1043,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1080,7 +1080,7 @@
         <v>2.5</v>
       </c>
       <c r="D2" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1091,7 +1091,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1102,7 +1102,7 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -1113,7 +1113,7 @@
         <v>0.75</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -1124,7 +1124,7 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -1135,7 +1135,7 @@
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -1149,7 +1149,7 @@
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -1160,7 +1160,7 @@
         <v>2.25</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -1171,7 +1171,7 @@
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -1182,7 +1182,7 @@
         <v>1.5</v>
       </c>
       <c r="D11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -1196,7 +1196,7 @@
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -1207,7 +1207,7 @@
         <v>2.5</v>
       </c>
       <c r="D13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -1218,7 +1218,7 @@
         <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -1229,7 +1229,7 @@
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -1243,7 +1243,7 @@
         <v>1.25</v>
       </c>
       <c r="D16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -1254,7 +1254,7 @@
         <v>0.5</v>
       </c>
       <c r="D17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -1265,7 +1265,7 @@
         <v>2.25</v>
       </c>
       <c r="D18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -1276,7 +1276,7 @@
         <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -1287,7 +1287,7 @@
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -1298,7 +1298,7 @@
         <v>2.5</v>
       </c>
       <c r="D21" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -1309,7 +1309,7 @@
         <v>1.5</v>
       </c>
       <c r="D22" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -1320,7 +1320,7 @@
         <v>2</v>
       </c>
       <c r="D23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -1331,7 +1331,7 @@
         <v>2.5</v>
       </c>
       <c r="D24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -1342,7 +1342,7 @@
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -1353,7 +1353,7 @@
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -1364,7 +1364,7 @@
         <v>2.5</v>
       </c>
       <c r="D27" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -1374,8 +1374,11 @@
       <c r="B28">
         <v>2</v>
       </c>
+      <c r="C28">
+        <v>0.25</v>
+      </c>
       <c r="D28" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -1386,7 +1389,18 @@
         <v>1.5</v>
       </c>
       <c r="D29" t="s">
-        <v>67</v>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>41465</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="D30" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/RTuinOS/doc/effort.xlsx
+++ b/RTuinOS/doc/effort.xlsx
@@ -10,12 +10,12 @@
     <sheet name="Effort R 1.0" sheetId="3" r:id="rId1"/>
     <sheet name="Effort R 0.9" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621" refMode="R1C1"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="71">
   <si>
     <t>Date</t>
   </si>
@@ -1043,10 +1043,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1400,6 +1400,31 @@
         <v>2</v>
       </c>
       <c r="D30" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>41466</v>
+      </c>
+      <c r="B31">
+        <v>2.5</v>
+      </c>
+      <c r="C31">
+        <v>1.5</v>
+      </c>
+      <c r="D31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>41467</v>
+      </c>
+      <c r="C32">
+        <v>4.25</v>
+      </c>
+      <c r="D32" t="s">
         <v>65</v>
       </c>
     </row>

--- a/RTuinOS/doc/effort.xlsx
+++ b/RTuinOS/doc/effort.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="72">
   <si>
     <t>Date</t>
   </si>
@@ -228,6 +228,9 @@
   </si>
   <si>
     <t>Documentation makefile changes. Concept for new sync objects</t>
+  </si>
+  <si>
+    <t>Implementation and documentation of tc14</t>
   </si>
 </sst>
 </file>
@@ -1045,9 +1048,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1421,11 +1422,14 @@
       <c r="A32" s="1">
         <v>41467</v>
       </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
       <c r="C32">
         <v>4.25</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/RTuinOS/doc/effort.xlsx
+++ b/RTuinOS/doc/effort.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="73">
   <si>
     <t>Date</t>
   </si>
@@ -231,6 +231,9 @@
   </si>
   <si>
     <t>Implementation and documentation of tc14</t>
+  </si>
+  <si>
+    <t>All test cases run; many typos/correction in the test case documentation</t>
   </si>
 </sst>
 </file>
@@ -1046,9 +1049,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1430,6 +1435,17 @@
       </c>
       <c r="D32" t="s">
         <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>41470</v>
+      </c>
+      <c r="B33">
+        <v>2.5</v>
+      </c>
+      <c r="D33" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/RTuinOS/doc/effort.xlsx
+++ b/RTuinOS/doc/effort.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="75">
   <si>
     <t>Date</t>
   </si>
@@ -234,6 +234,12 @@
   </si>
   <si>
     <t>All test cases run; many typos/correction in the test case documentation</t>
+  </si>
+  <si>
+    <t>Setup creation, prerelease sent to Sudar Muthu</t>
+  </si>
+  <si>
+    <t>Revision of manual</t>
   </si>
 </sst>
 </file>
@@ -1049,10 +1055,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1446,6 +1452,28 @@
       </c>
       <c r="D33" t="s">
         <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>41471</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>41472</v>
+      </c>
+      <c r="B35">
+        <v>1.25</v>
+      </c>
+      <c r="D35" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/RTuinOS/doc/effort.xlsx
+++ b/RTuinOS/doc/effort.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="75">
   <si>
     <t>Date</t>
   </si>
@@ -233,13 +233,13 @@
     <t>Implementation and documentation of tc14</t>
   </si>
   <si>
+    <t>Setup creation, prerelease sent to Sudar Muthu</t>
+  </si>
+  <si>
+    <t>Revision of manual</t>
+  </si>
+  <si>
     <t>All test cases run; many typos/correction in the test case documentation</t>
-  </si>
-  <si>
-    <t>Setup creation, prerelease sent to Sudar Muthu</t>
-  </si>
-  <si>
-    <t>Revision of manual</t>
   </si>
 </sst>
 </file>
@@ -1055,10 +1055,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1451,7 +1451,7 @@
         <v>2.5</v>
       </c>
       <c r="D33" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -1461,8 +1461,11 @@
       <c r="B34">
         <v>1</v>
       </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
       <c r="D34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -1473,7 +1476,18 @@
         <v>1.25</v>
       </c>
       <c r="D35" t="s">
-        <v>74</v>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>41473</v>
+      </c>
+      <c r="B36">
+        <v>1.5</v>
+      </c>
+      <c r="D36" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/RTuinOS/doc/effort.xlsx
+++ b/RTuinOS/doc/effort.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="78">
   <si>
     <t>Date</t>
   </si>
@@ -240,6 +240,15 @@
   </si>
   <si>
     <t>All test cases run; many typos/correction in the test case documentation</t>
+  </si>
+  <si>
+    <t>Review kernel code</t>
+  </si>
+  <si>
+    <t>Refactoring of posting events</t>
+  </si>
+  <si>
+    <t>Refactoring: posting events and code review, tests re-run, boolean_t, sendEvent</t>
   </si>
 </sst>
 </file>
@@ -1055,10 +1064,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1488,6 +1497,50 @@
       </c>
       <c r="D36" t="s">
         <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>41475</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>41475</v>
+      </c>
+      <c r="B38">
+        <v>1.5</v>
+      </c>
+      <c r="D38" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>41478</v>
+      </c>
+      <c r="B39">
+        <v>1.5</v>
+      </c>
+      <c r="D39" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>41479</v>
+      </c>
+      <c r="B40">
+        <v>2.5</v>
+      </c>
+      <c r="D40" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/RTuinOS/doc/effort.xlsx
+++ b/RTuinOS/doc/effort.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="79">
   <si>
     <t>Date</t>
   </si>
@@ -249,6 +249,9 @@
   </si>
   <si>
     <t>Refactoring: posting events and code review, tests re-run, boolean_t, sendEvent</t>
+  </si>
+  <si>
+    <t>Revision of tc06</t>
   </si>
 </sst>
 </file>
@@ -1064,10 +1067,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1541,6 +1544,17 @@
       </c>
       <c r="D40" t="s">
         <v>77</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>41480</v>
+      </c>
+      <c r="B41">
+        <v>2.5</v>
+      </c>
+      <c r="D41" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/RTuinOS/doc/effort.xlsx
+++ b/RTuinOS/doc/effort.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="80">
   <si>
     <t>Date</t>
   </si>
@@ -252,6 +252,9 @@
   </si>
   <si>
     <t>Revision of tc06</t>
+  </si>
+  <si>
+    <t>Revision of manual completed</t>
   </si>
 </sst>
 </file>
@@ -1067,10 +1070,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1555,6 +1558,17 @@
       </c>
       <c r="D41" t="s">
         <v>78</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>41481</v>
+      </c>
+      <c r="B42">
+        <v>3</v>
+      </c>
+      <c r="D42" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/RTuinOS/doc/effort.xlsx
+++ b/RTuinOS/doc/effort.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="81">
   <si>
     <t>Date</t>
   </si>
@@ -255,6 +255,9 @@
   </si>
   <si>
     <t>Revision of manual completed</t>
+  </si>
+  <si>
+    <t>New test case tc15 implemented</t>
   </si>
 </sst>
 </file>
@@ -1070,10 +1073,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1569,6 +1572,17 @@
       </c>
       <c r="D42" t="s">
         <v>79</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>41482</v>
+      </c>
+      <c r="B43">
+        <v>3</v>
+      </c>
+      <c r="D43" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/RTuinOS/doc/effort.xlsx
+++ b/RTuinOS/doc/effort.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="83">
   <si>
     <t>Date</t>
   </si>
@@ -258,6 +258,12 @@
   </si>
   <si>
     <t>New test case tc15 implemented</t>
+  </si>
+  <si>
+    <t>Review test case tc12</t>
+  </si>
+  <si>
+    <t>Documentation test case tc12; re-integration of Sudars comments of July 29 into the code</t>
   </si>
 </sst>
 </file>
@@ -1073,10 +1079,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1583,6 +1589,28 @@
       </c>
       <c r="D43" t="s">
         <v>80</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>41484</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="D44" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>41485</v>
+      </c>
+      <c r="C45">
+        <v>1.5</v>
+      </c>
+      <c r="D45" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/RTuinOS/doc/effort.xlsx
+++ b/RTuinOS/doc/effort.xlsx
@@ -1082,7 +1082,7 @@
   <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1605,6 +1605,9 @@
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>41485</v>
+      </c>
+      <c r="B45">
+        <v>2</v>
       </c>
       <c r="C45">
         <v>1.5</v>

--- a/RTuinOS/doc/effort.xlsx
+++ b/RTuinOS/doc/effort.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="84">
   <si>
     <t>Date</t>
   </si>
@@ -264,6 +264,9 @@
   </si>
   <si>
     <t>Documentation test case tc12; re-integration of Sudars comments of July 29 into the code</t>
+  </si>
+  <si>
+    <t>Preparation of setup and release</t>
   </si>
 </sst>
 </file>
@@ -1079,10 +1082,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1408,10 +1411,7 @@
         <v>41463</v>
       </c>
       <c r="B28">
-        <v>2</v>
-      </c>
-      <c r="C28">
-        <v>0.25</v>
+        <v>2.25</v>
       </c>
       <c r="D28" t="s">
         <v>68</v>
@@ -1444,10 +1444,7 @@
         <v>41466</v>
       </c>
       <c r="B31">
-        <v>2.5</v>
-      </c>
-      <c r="C31">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="D31" t="s">
         <v>65</v>
@@ -1614,6 +1611,28 @@
       </c>
       <c r="D45" t="s">
         <v>82</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>41486</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="D46" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>41489</v>
+      </c>
+      <c r="B47">
+        <v>1.5</v>
+      </c>
+      <c r="D47" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1627,7 +1646,7 @@
   <dimension ref="A1:C58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
